--- a/Publisher - Active Offer List Sep'25.xlsx
+++ b/Publisher - Active Offer List Sep'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanishasrivastava/Desktop/Excel_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E74C54-A9DA-C54D-8121-E9BFC39692A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD6E49-6BA4-454F-8E37-20B2B0B688C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{F60A7AD1-56A2-BC49-9007-C444D7CDE69D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="575">
   <si>
     <t>Offer</t>
   </si>
@@ -2616,6 +2616,240 @@
   </si>
   <si>
     <t>50 orders per day to start with.</t>
+  </si>
+  <si>
+    <t>Samsung </t>
+  </si>
+  <si>
+    <t>No Payout on ERP &amp; SPP</t>
+  </si>
+  <si>
+    <t>Range: 3%- 3.5% + category slabs</t>
+  </si>
+  <si>
+    <t>OTT Play</t>
+  </si>
+  <si>
+    <t>30% Engagement Rate</t>
+  </si>
+  <si>
+    <t>INR 220</t>
+  </si>
+  <si>
+    <t>Panelstation</t>
+  </si>
+  <si>
+    <t>50% completion and Geography: ANY</t>
+  </si>
+  <si>
+    <t>$1 per verified lead</t>
+  </si>
+  <si>
+    <t>$2 per completed client survey</t>
+  </si>
+  <si>
+    <t>WforWoman</t>
+  </si>
+  <si>
+    <t>Retargeting allowed</t>
+  </si>
+  <si>
+    <t>Aurelia</t>
+  </si>
+  <si>
+    <t>Indigo Flight </t>
+  </si>
+  <si>
+    <t>India to Europe only booking</t>
+  </si>
+  <si>
+    <t>INR 200</t>
+  </si>
+  <si>
+    <t>Indigo 6e Hotels</t>
+  </si>
+  <si>
+    <t>SEM is strictly prohibited</t>
+  </si>
+  <si>
+    <t>INR 1000</t>
+  </si>
+  <si>
+    <t>FirstCry</t>
+  </si>
+  <si>
+    <t>No extra KPIs</t>
+  </si>
+  <si>
+    <t>Rs.0 on order value below Rs.100</t>
+  </si>
+  <si>
+    <t>Rs.30 on order value below Rs.500</t>
+  </si>
+  <si>
+    <t>Rs.50 on order value above Rs.500</t>
+  </si>
+  <si>
+    <t>Shopsy</t>
+  </si>
+  <si>
+    <t>#NA categories and FAP orders are not billable</t>
+  </si>
+  <si>
+    <t>12% - Commission structure</t>
+  </si>
+  <si>
+    <t>ClearTrip</t>
+  </si>
+  <si>
+    <t>Retargeting strictly prohibited</t>
+  </si>
+  <si>
+    <t>INR 200- Domestic</t>
+  </si>
+  <si>
+    <t>INR 300- International</t>
+  </si>
+  <si>
+    <t>Akbar Travels</t>
+  </si>
+  <si>
+    <t>Fake leads, bidding, self-referrals, or misrepresentation will result in account suspension. Ensure all traffic is genuine and complies with Akbar Travels’ terms</t>
+  </si>
+  <si>
+    <t>INR 350- International</t>
+  </si>
+  <si>
+    <t>Bombay Shaving Company</t>
+  </si>
+  <si>
+    <t>PPC Prohibited</t>
+  </si>
+  <si>
+    <t>Any codes used from other marketing channels like Cred, Paytm, etc will not be validated. These Codes will contain some pattern in their Prefix. eg. Paytm code can be PT599, PAYTM599, PAY599, etc.</t>
+  </si>
+  <si>
+    <t>Commission Structure</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>8% on paid orders</t>
+  </si>
+  <si>
+    <t>Go Noise</t>
+  </si>
+  <si>
+    <t>Any SEM and brand bidding actvity are prohibited.</t>
+  </si>
+  <si>
+    <t>Toluna</t>
+  </si>
+  <si>
+    <t>Survey start 85% - That means how many members have started to do surveys in the first month after they joined Toluna panel, this is to prevent fraud registrations. If they just signup but then never login again and never start any surveys that means low ROI to us</t>
+  </si>
+  <si>
+    <t>Closing Survey - 15% </t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>NO PPC and bulk buying- otherwise penalty </t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Bajaj GL</t>
+  </si>
+  <si>
+    <t>Limited partners</t>
+  </si>
+  <si>
+    <t>INR 30</t>
+  </si>
+  <si>
+    <t>Bajaj HL</t>
+  </si>
+  <si>
+    <t>Bajaj 2WH</t>
+  </si>
+  <si>
+    <t>Trainline</t>
+  </si>
+  <si>
+    <t>Multiple Geos</t>
+  </si>
+  <si>
+    <t>Partnerise Platform</t>
+  </si>
+  <si>
+    <t>Slabwise</t>
+  </si>
+  <si>
+    <t>AirAsia</t>
+  </si>
+  <si>
+    <t>DH Gate</t>
+  </si>
+  <si>
+    <t>Via impact</t>
+  </si>
+  <si>
+    <t>Temu</t>
+  </si>
+  <si>
+    <t>INR 150</t>
+  </si>
+  <si>
+    <t>HDFC Pixel CC</t>
+  </si>
+  <si>
+    <t>Payable event- Dispatch and Disbursal</t>
+  </si>
+  <si>
+    <t>Airtel DTH</t>
+  </si>
+  <si>
+    <t>PAN India</t>
+  </si>
+  <si>
+    <t>Airtel broadband</t>
+  </si>
+  <si>
+    <t>Touch UA</t>
+  </si>
+  <si>
+    <t>Via MyLead Platform</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>INR 350</t>
+  </si>
+  <si>
+    <t>levis</t>
+  </si>
+  <si>
+    <t>"Order Volume Revenue %</t>
+  </si>
+  <si>
+    <t>0-1500 15%</t>
+  </si>
+  <si>
+    <t>1501-2500 18%</t>
+  </si>
+  <si>
+    <t>2501-3500 20%</t>
+  </si>
+  <si>
+    <t>Above 3500 25%"</t>
   </si>
 </sst>
 </file>
@@ -2773,7 +3007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2803,6 +3037,10 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3137,10 +3375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC8AB52-E5AC-E44C-A0A3-99D7D77BCBB1}">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="14" customHeight="1"/>
@@ -6742,7 +6980,1123 @@
         <v>24</v>
       </c>
     </row>
+    <row r="93" spans="1:14" ht="14" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" spans="1:14" ht="14" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" spans="1:14" ht="14" customHeight="1">
+      <c r="A95" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+    </row>
+    <row r="96" spans="1:14" ht="14" customHeight="1">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+    </row>
+    <row r="97" spans="1:14" ht="14" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+    </row>
+    <row r="98" spans="1:14" ht="14" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" spans="1:14" ht="14" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+    </row>
+    <row r="100" spans="1:14" ht="14" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+    </row>
+    <row r="101" spans="1:14" ht="14" customHeight="1">
+      <c r="A101" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+    </row>
+    <row r="102" spans="1:14" ht="14" customHeight="1">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+    </row>
+    <row r="103" spans="1:14" ht="14" customHeight="1">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+    </row>
+    <row r="104" spans="1:14" ht="14" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+    </row>
+    <row r="105" spans="1:14" ht="14" customHeight="1">
+      <c r="A105" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+    </row>
+    <row r="106" spans="1:14" ht="14" customHeight="1">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+    </row>
+    <row r="107" spans="1:14" ht="14" customHeight="1">
+      <c r="A107" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+    </row>
+    <row r="108" spans="1:14" ht="14" customHeight="1">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+    </row>
+    <row r="109" spans="1:14" ht="14" customHeight="1">
+      <c r="A109" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+    </row>
+    <row r="110" spans="1:14" ht="14" customHeight="1">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="I110" s="20"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+    </row>
+    <row r="111" spans="1:14" ht="14" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+    </row>
+    <row r="112" spans="1:14" ht="14" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+    </row>
+    <row r="113" spans="1:14" ht="14" customHeight="1">
+      <c r="A113" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="I113" s="19">
+        <v>70</v>
+      </c>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+    </row>
+    <row r="114" spans="1:14" ht="14" customHeight="1">
+      <c r="A114" s="18"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+    </row>
+    <row r="115" spans="1:14" ht="14" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+    </row>
+    <row r="116" spans="1:14" ht="14" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+    </row>
+    <row r="117" spans="1:14" ht="14" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+    </row>
+    <row r="118" spans="1:14" ht="14" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+    </row>
+    <row r="119" spans="1:14" ht="14" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+    </row>
+    <row r="120" spans="1:14" ht="14" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+    </row>
+    <row r="121" spans="1:14" ht="14" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+    </row>
+    <row r="122" spans="1:14" ht="14" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+    </row>
+    <row r="123" spans="1:14" ht="14" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+    </row>
+    <row r="124" spans="1:14" ht="14" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+    </row>
+    <row r="125" spans="1:14" ht="14" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+    </row>
+    <row r="126" spans="1:14" ht="14" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+    </row>
+    <row r="127" spans="1:14" ht="14" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+    </row>
+    <row r="128" spans="1:14" ht="14" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+    </row>
+    <row r="129" spans="1:14" ht="14" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+    </row>
+    <row r="130" spans="1:14" ht="14" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+    </row>
+    <row r="131" spans="1:14" ht="14" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+    </row>
+    <row r="132" spans="1:14" ht="14" customHeight="1">
+      <c r="A132" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+    </row>
+    <row r="133" spans="1:14" ht="14" customHeight="1">
+      <c r="A133" s="18"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+    </row>
+    <row r="134" spans="1:14" ht="14" customHeight="1">
+      <c r="A134" s="18"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+    </row>
+    <row r="135" spans="1:14" ht="14" customHeight="1">
+      <c r="A135" s="18"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+    </row>
+    <row r="136" spans="1:14" ht="14" customHeight="1">
+      <c r="A136" s="18"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+    </row>
+    <row r="137" spans="1:14" ht="14" customHeight="1">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+    </row>
+    <row r="138" spans="1:14" ht="14" customHeight="1">
+      <c r="A138" s="18"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+    </row>
+    <row r="139" spans="1:14" ht="14" customHeight="1">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+    </row>
+    <row r="140" spans="1:14" ht="14" customHeight="1">
+      <c r="A140" s="18"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="G132:G140"/>
+    <mergeCell ref="H132:H140"/>
+    <mergeCell ref="J132:J140"/>
+    <mergeCell ref="K132:K140"/>
+    <mergeCell ref="L132:L140"/>
+    <mergeCell ref="M132:M140"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="N113:N114"/>
+    <mergeCell ref="A132:A140"/>
+    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="C132:C140"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="E132:E140"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="M101:M103"/>
+    <mergeCell ref="N101:N103"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="G101:G103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00744C40-1576-0D41-84D4-6E2ABD2E96A5}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{3BF18B8D-A3F2-AB43-A593-8164C7459B9E}"/>

--- a/Publisher - Active Offer List Sep'25.xlsx
+++ b/Publisher - Active Offer List Sep'25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanishasrivastava/Desktop/Excel_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD6E49-6BA4-454F-8E37-20B2B0B688C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80A472-12F1-6D40-8C92-53E1D055774B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{F60A7AD1-56A2-BC49-9007-C444D7CDE69D}"/>
+    <workbookView xWindow="820" yWindow="1180" windowWidth="27640" windowHeight="15460" xr2:uid="{F60A7AD1-56A2-BC49-9007-C444D7CDE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="567">
   <si>
     <t>Offer</t>
   </si>
@@ -2642,12 +2642,6 @@
     <t>50% completion and Geography: ANY</t>
   </si>
   <si>
-    <t>$1 per verified lead</t>
-  </si>
-  <si>
-    <t>$2 per completed client survey</t>
-  </si>
-  <si>
     <t>WforWoman</t>
   </si>
   <si>
@@ -2681,15 +2675,6 @@
     <t>No extra KPIs</t>
   </si>
   <si>
-    <t>Rs.0 on order value below Rs.100</t>
-  </si>
-  <si>
-    <t>Rs.30 on order value below Rs.500</t>
-  </si>
-  <si>
-    <t>Rs.50 on order value above Rs.500</t>
-  </si>
-  <si>
     <t>Shopsy</t>
   </si>
   <si>
@@ -2705,30 +2690,15 @@
     <t>Retargeting strictly prohibited</t>
   </si>
   <si>
-    <t>INR 200- Domestic</t>
-  </si>
-  <si>
-    <t>INR 300- International</t>
-  </si>
-  <si>
     <t>Akbar Travels</t>
   </si>
   <si>
     <t>Fake leads, bidding, self-referrals, or misrepresentation will result in account suspension. Ensure all traffic is genuine and complies with Akbar Travels’ terms</t>
   </si>
   <si>
-    <t>INR 350- International</t>
-  </si>
-  <si>
     <t>Bombay Shaving Company</t>
   </si>
   <si>
-    <t>PPC Prohibited</t>
-  </si>
-  <si>
-    <t>Any codes used from other marketing channels like Cred, Paytm, etc will not be validated. These Codes will contain some pattern in their Prefix. eg. Paytm code can be PT599, PAYTM599, PAY599, etc.</t>
-  </si>
-  <si>
     <t>Commission Structure</t>
   </si>
   <si>
@@ -2747,12 +2717,6 @@
     <t>Toluna</t>
   </si>
   <si>
-    <t>Survey start 85% - That means how many members have started to do surveys in the first month after they joined Toluna panel, this is to prevent fraud registrations. If they just signup but then never login again and never start any surveys that means low ROI to us</t>
-  </si>
-  <si>
-    <t>Closing Survey - 15% </t>
-  </si>
-  <si>
     <t>Myntra</t>
   </si>
   <si>
@@ -2837,19 +2801,36 @@
     <t>levis</t>
   </si>
   <si>
-    <t>"Order Volume Revenue %</t>
-  </si>
-  <si>
-    <t>0-1500 15%</t>
-  </si>
-  <si>
-    <t>1501-2500 18%</t>
-  </si>
-  <si>
-    <t>2501-3500 20%</t>
-  </si>
-  <si>
-    <t>Above 3500 25%"</t>
+    <t xml:space="preserve">Campaign Type </t>
+  </si>
+  <si>
+    <t>CPM</t>
+  </si>
+  <si>
+    <t>$1 per verified lead / $2 per completed client survey</t>
+  </si>
+  <si>
+    <t>Rs.0 on order value below Rs.100 / Rs.30 on order value below Rs.500 / 
+Rs.50 on order value above Rs.500</t>
+  </si>
+  <si>
+    <t>INR 200- Domestic / INR 300- International</t>
+  </si>
+  <si>
+    <t>INR 200- Domestic / INR 350- International</t>
+  </si>
+  <si>
+    <t>PPC Prohibited / Any codes used from other marketing channels like Cred, Paytm, etc will not be validated. These Codes will contain some pattern in their Prefix. eg. Paytm code can be PT599, PAYTM599, PAY599, etc.</t>
+  </si>
+  <si>
+    <t>Survey start 85% - That means how many members have started to do surveys in the first month after they joined Toluna panel, this is to prevent fraud registrations. If they just signup but then never login again /  and never start any surveys that means low ROI to us Closing Survey - 15% </t>
+  </si>
+  <si>
+    <t>Order Volume Revenue %
+0-1500 15%
+1501-2500 18%
+2501-3500 20%
+Above 3500 25%</t>
   </si>
 </sst>
 </file>
@@ -3007,7 +2988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3038,9 +3019,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3375,4766 +3354,4929 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC8AB52-E5AC-E44C-A0A3-99D7D77BCBB1}">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:B106"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="21" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="14" customHeight="1">
+    <row r="1" spans="1:15" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14" customHeight="1">
+    <row r="2" spans="1:15" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="14" customHeight="1">
+      <c r="O4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N6" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14" customHeight="1">
+      <c r="O6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N7" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="14" customHeight="1">
+      <c r="O7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N8" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="14" customHeight="1">
+      <c r="O8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="N9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N10" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="14" customHeight="1">
+      <c r="O10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N11" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="14" customHeight="1">
+      <c r="O11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N12" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14" customHeight="1">
+      <c r="O12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="21" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N13" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="14" customHeight="1">
+      <c r="O13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="21" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N14" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14" customHeight="1">
+      <c r="O14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="21" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="13">
         <v>1.5</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>50</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N15" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="14" customHeight="1">
+      <c r="O15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="21" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="14">
+      <c r="J16" s="14">
         <v>25</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>50</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N16" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="14" customHeight="1">
+      <c r="O16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="21" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="M17" s="6"/>
       <c r="N17" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="14" customHeight="1">
+      <c r="O17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="21" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="14" customHeight="1">
+      <c r="O18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="21" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="M19" s="6"/>
       <c r="N19" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="14" customHeight="1">
+      <c r="O19" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="21" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="14">
+      <c r="J20" s="14">
         <v>5</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N20" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14" customHeight="1">
+      <c r="O20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="21" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="14">
+      <c r="J21" s="14">
         <v>18</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N21" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="14" customHeight="1">
+      <c r="O21" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="21" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="14">
+      <c r="J22" s="14">
         <v>6</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N22" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="14" customHeight="1">
+      <c r="O22" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="21" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>10</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N23" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="14" customHeight="1">
+      <c r="O23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="21" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="M24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N24" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="14" customHeight="1">
+      <c r="O24" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="21" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J25" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N25" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="14" customHeight="1">
+      <c r="O25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="21" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="6" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N26" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="14" customHeight="1">
+      <c r="O26" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="21" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="J27" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N27" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="14" customHeight="1">
+      <c r="O27" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="21" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N28" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="14" customHeight="1">
+      <c r="O28" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="21" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="J29" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N29" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="14" customHeight="1">
+      <c r="O29" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="21" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I30" s="14">
+      <c r="J30" s="14">
         <v>27</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="K30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="6"/>
+      <c r="M30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N30" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="14" customHeight="1">
+      <c r="O30" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="21" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>50</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N31" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="14" customHeight="1">
+      <c r="O31" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="21" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="M32" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N32" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="14" customHeight="1">
+      <c r="O32" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="21" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="I33" s="13">
+      <c r="J33" s="13">
         <v>0.3</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="K33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="M33" s="6"/>
       <c r="N33" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="14" customHeight="1">
+      <c r="O33" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="21" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <v>3</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="M34" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N34" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="14" customHeight="1">
+      <c r="O34" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="21" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="13">
+      <c r="J35" s="13">
         <v>0.7</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="K35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="L35" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="M35" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N35" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="14" customHeight="1">
+      <c r="O35" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="21" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="L36" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="M36" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="M36" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N36" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="14" customHeight="1">
+      <c r="O36" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="21" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="J37" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="J37" s="6">
-        <v>15</v>
-      </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="6">
+        <v>15</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="M37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M37" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N37" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="14" customHeight="1">
+      <c r="O37" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="21" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="E38" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="I38" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="K38" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="L38" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M38" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N38" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="14" customHeight="1">
+      <c r="O38" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="21" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="E39" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="J39" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="K39" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="L39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="M39" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M39" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N39" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="14" customHeight="1">
+      <c r="O39" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="21" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="J40" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="M40" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M40" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N40" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="14" customHeight="1">
+      <c r="O40" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="21" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="E41" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="K41" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="L41" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="M41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N41" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="14" customHeight="1">
+      <c r="O41" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="21" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>268</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="J42" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="K42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="L42" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="M42" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M42" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N42" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="14" customHeight="1">
+      <c r="O42" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="21" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="J43" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="M43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N43" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="14" customHeight="1">
+      <c r="O43" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="21" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="K44" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="L44" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="M44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N44" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="14" customHeight="1">
+      <c r="O44" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="21" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="J45" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="K45" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="M45" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N45" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="14" customHeight="1">
+      <c r="O45" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="21" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>292</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="J46" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="K46" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="L46" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="M46" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M46" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N46" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="14" customHeight="1">
+      <c r="O46" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="21" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="J47" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>10</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="L47" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="M47" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M47" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N47" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="14" customHeight="1">
+      <c r="O47" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="21" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="J48" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="K48" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="L48" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="M48" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N48" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="14" customHeight="1">
+      <c r="O48" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="21" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>306</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="J49" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="L49" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="M49" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M49" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N49" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="14" customHeight="1">
+      <c r="O49" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="21" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>313</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="H50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="J50" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <v>300</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="L50" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="M50" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="M50" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N50" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="14" customHeight="1">
+      <c r="O50" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="21" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="H51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="I51" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="J51" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="K51" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="L51" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="M51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M51" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N51" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="14" customHeight="1">
+      <c r="O51" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="21" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>323</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="I52" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="J52" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="K52" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="L52" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="M52" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M52" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N52" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="14" customHeight="1">
+      <c r="O52" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="21" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="J53" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J53" s="6">
+      <c r="K53" s="6">
         <v>10</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="L53" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="M53" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="M53" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N53" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="14" customHeight="1">
+      <c r="O53" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="21" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>338</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="J54" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="K54" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="L54" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="M54" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="M54" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N54" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="14" customHeight="1">
+      <c r="O54" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="21" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>345</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="H55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="J55" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J55" s="6">
+      <c r="K55" s="6">
         <v>10</v>
       </c>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="6"/>
+      <c r="M55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M55" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N55" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="14" customHeight="1">
+      <c r="O55" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="21" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="H56" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="I56" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="J56" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="K56" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="L56" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="M56" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="M56" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N56" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="14" customHeight="1">
+      <c r="O56" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="21" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>357</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="H57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="J57" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="M57" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="M57" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N57" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="14" customHeight="1">
+      <c r="O57" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="21" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="H58" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="I58" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="J58" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="K58" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="L58" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="M58" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="M58" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N58" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="14" customHeight="1">
+      <c r="O58" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="21" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>370</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="H59" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="I59" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="J59" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="L59" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="M59" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="M59" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N59" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="14" customHeight="1">
+      <c r="O59" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="21" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="H60" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="I60" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="J60" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="K60" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="L60" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="M60" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="M60" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N60" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="14" customHeight="1">
+      <c r="O60" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="21" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>385</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="H61" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="J61" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="L61" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L61" s="6" t="s">
+      <c r="M61" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M61" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N61" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="14" customHeight="1">
+      <c r="O61" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="21" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="H62" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="I62" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="J62" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="K62" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="L62" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L62" s="6" t="s">
+      <c r="M62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M62" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N62" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="14" customHeight="1">
+      <c r="O62" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="21" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="J63" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="K63" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="L63" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="L63" s="6" t="s">
+      <c r="M63" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="M63" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N63" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="14" customHeight="1">
+      <c r="O63" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="21" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="H64" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="I64" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="J64" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="K64" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="L64" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L64" s="6" t="s">
+      <c r="M64" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M64" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N64" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="14" customHeight="1">
+      <c r="O64" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="21" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="I65" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="J65" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="K65" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="L65" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="L65" s="6" t="s">
+      <c r="M65" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M65" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N65" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="14" customHeight="1">
+      <c r="O65" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="21" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="E66" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="H66" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="I66" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="J66" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="K66" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="K66" s="6" t="s">
+      <c r="L66" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="L66" s="6" t="s">
+      <c r="M66" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M66" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N66" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="14" customHeight="1">
+      <c r="O66" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="21" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>417</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="H67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="I67" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="J67" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="K67" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="L67" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L67" s="6" t="s">
+      <c r="M67" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M67" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N67" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="14" customHeight="1">
+      <c r="O67" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="21" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="E68" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="H68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="I68" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="J68" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="K68" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="L68" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="L68" s="6" t="s">
+      <c r="M68" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M68" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N68" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="14" customHeight="1">
+      <c r="O68" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="21" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="H69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="I69" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="J69" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="K69" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="L69" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="L69" s="6" t="s">
+      <c r="M69" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M69" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N69" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="14" customHeight="1">
+      <c r="O69" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="21" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>433</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="E70" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="G70" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="H70" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="I70" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="J70" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="K70" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="L70" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="M70" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M70" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N70" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="14" customHeight="1">
+      <c r="O70" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="21" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>437</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="H71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="J71" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="K71" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="L71" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L71" s="6" t="s">
+      <c r="M71" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M71" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N71" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="14" customHeight="1">
+      <c r="O71" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="21" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="H72" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="I72" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="J72" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="6" t="s">
+      <c r="L72" s="6"/>
+      <c r="M72" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M72" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N72" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="14" customHeight="1">
+      <c r="O72" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="21" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>446</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D73" s="8"/>
-      <c r="F73" s="6" t="s">
+      <c r="E73" s="8"/>
+      <c r="G73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="H73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="I73" s="6">
+      <c r="J73" s="6">
         <v>35</v>
       </c>
-      <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L73" s="6"/>
       <c r="M73" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N73" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="14" customHeight="1">
+      <c r="O73" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="21" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>448</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D74" s="8"/>
-      <c r="F74" s="6" t="s">
+      <c r="E74" s="8"/>
+      <c r="G74" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="I74" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="J74" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N74" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="14" customHeight="1">
+      <c r="O74" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="21" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D75" s="8"/>
-      <c r="F75" s="6" t="s">
+      <c r="E75" s="8"/>
+      <c r="G75" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="H75" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="6" t="s">
+      <c r="L75" s="6"/>
+      <c r="M75" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="M75" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N75" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="14" customHeight="1">
+      <c r="O75" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="21" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>454</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="H76" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="6"/>
+      <c r="J76" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L76" s="6"/>
       <c r="M76" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N76" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="14" customHeight="1">
+      <c r="O76" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="21" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="H77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L77" s="6"/>
       <c r="M77" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N77" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="14" customHeight="1">
+      <c r="O77" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="21" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>458</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="H78" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="I78" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="I78" s="6">
+      <c r="J78" s="6">
         <v>1.45</v>
       </c>
-      <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N78" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="14" customHeight="1">
+      <c r="O78" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="21" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>460</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="H79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="I79" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="J79" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="6" t="s">
+      <c r="L79" s="6"/>
+      <c r="M79" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="M79" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N79" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="14" customHeight="1">
+      <c r="O79" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="21" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>464</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="H80" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6">
+      <c r="I80" s="6"/>
+      <c r="J80" s="6">
         <v>0.06</v>
       </c>
-      <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L80" s="6"/>
       <c r="M80" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N80" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="14" customHeight="1">
+      <c r="O80" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="21" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>467</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="H81" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="6"/>
+      <c r="J81" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6" t="s">
+      <c r="L81" s="6"/>
+      <c r="M81" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="M81" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N81" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="14" customHeight="1">
+      <c r="O81" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="21" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="H82" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L82" s="6"/>
       <c r="M82" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N82" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="14" customHeight="1">
+      <c r="O82" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="21" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>472</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="H83" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="I83" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="I83" s="6">
+      <c r="J83" s="6">
         <v>200</v>
       </c>
-      <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="6" t="s">
+      <c r="L83" s="6"/>
+      <c r="M83" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M83" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N83" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="14" customHeight="1">
+      <c r="O83" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="21" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>474</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="H84" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="I84" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="I84" s="6">
+      <c r="J84" s="6">
         <v>200</v>
       </c>
-      <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="6" t="s">
+      <c r="L84" s="6"/>
+      <c r="M84" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M84" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N84" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="14" customHeight="1">
+      <c r="O84" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="21" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>476</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="H85" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="6"/>
+      <c r="J85" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="6" t="s">
+      <c r="L85" s="6"/>
+      <c r="M85" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M85" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N85" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="14" customHeight="1">
+      <c r="O85" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="21" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>478</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="H86" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="I86" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="I86" s="6">
+      <c r="J86" s="6">
         <v>18</v>
       </c>
-      <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="6" t="s">
+      <c r="L86" s="6"/>
+      <c r="M86" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="M86" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N86" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="14" customHeight="1">
+      <c r="O86" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="21" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>480</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="M87" s="6"/>
       <c r="N87" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="14" customHeight="1">
+      <c r="O87" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="21" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>481</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="H88" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6">
+      <c r="I88" s="6"/>
+      <c r="J88" s="6">
         <v>2.75E-2</v>
       </c>
-      <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="6" t="s">
+      <c r="L88" s="6"/>
+      <c r="M88" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="M88" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N88" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="14" customHeight="1">
+      <c r="O88" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="21" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>482</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="H89" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="I89" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="J89" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="6" t="s">
+      <c r="L89" s="6"/>
+      <c r="M89" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M89" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N89" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="14" customHeight="1">
+      <c r="O89" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="21" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>485</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="H90" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="6"/>
+      <c r="J90" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="6" t="s">
+      <c r="L90" s="6"/>
+      <c r="M90" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="M90" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N90" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="14" customHeight="1">
+      <c r="O90" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="21" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>487</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="H91" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H91" s="15" t="s">
+      <c r="I91" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="J91" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="M91" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N91" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="14" customHeight="1">
+      <c r="O91" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="21" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>492</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="H92" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="I92" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="J92" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="M92" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N92" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="14" customHeight="1">
+      <c r="O92" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="21" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B93" s="6"/>
+      <c r="B93" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="6"/>
+      <c r="H93" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="I93" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="J93" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
-    </row>
-    <row r="94" spans="1:14" ht="14" customHeight="1">
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="1:15" ht="21" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B94" s="6"/>
+      <c r="B94" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="6"/>
+      <c r="H94" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="I94" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="J94" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
-    </row>
-    <row r="95" spans="1:14" ht="14" customHeight="1">
-      <c r="A95" s="18" t="s">
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="1:15" ht="21" customHeight="1">
+      <c r="A95" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19" t="s">
+      <c r="B95" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H95" s="19" t="s">
+      <c r="I95" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="J95" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="1:15" ht="21" customHeight="1">
+      <c r="A96" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-    </row>
-    <row r="96" spans="1:14" ht="14" customHeight="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
+      <c r="B96" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="I96" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-    </row>
-    <row r="97" spans="1:14" ht="14" customHeight="1">
+      <c r="J96" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="1:15" ht="21" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B97" s="6"/>
+      <c r="B97" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="6"/>
+      <c r="H97" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H97" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="I97" s="6">
+      <c r="I97" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="J97" s="6">
         <v>0.1</v>
       </c>
-      <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
-    </row>
-    <row r="98" spans="1:14" ht="14" customHeight="1">
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="1:15" ht="21" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B98" s="6"/>
+        <v>508</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="6"/>
+      <c r="H98" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H98" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="I98" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J98" s="6"/>
+      <c r="I98" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>510</v>
+      </c>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
-    </row>
-    <row r="99" spans="1:14" ht="14" customHeight="1">
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="1:15" ht="21" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B99" s="6"/>
+        <v>511</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="6" t="s">
+      <c r="G99" s="6"/>
+      <c r="H99" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>511</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="J99" s="6"/>
+      <c r="J99" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
-    </row>
-    <row r="100" spans="1:14" ht="14" customHeight="1">
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="1:15" ht="21" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B100" s="6"/>
+        <v>514</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="6" t="s">
+      <c r="G100" s="6"/>
+      <c r="H100" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="J100" s="6"/>
+      <c r="J100" s="11" t="s">
+        <v>561</v>
+      </c>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
-    </row>
-    <row r="101" spans="1:14" ht="14" customHeight="1">
-      <c r="A101" s="18" t="s">
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="1:15" ht="21" customHeight="1">
+      <c r="A101" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19" t="s">
+      <c r="B101" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="I101" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="J101" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-    </row>
-    <row r="102" spans="1:14" ht="14" customHeight="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+    </row>
+    <row r="102" spans="1:15" ht="21" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="I102" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-    </row>
-    <row r="103" spans="1:14" ht="14" customHeight="1">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
+        <v>520</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="1:15" ht="21" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="I103" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
-    </row>
-    <row r="104" spans="1:14" ht="14" customHeight="1">
+        <v>522</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="1:15" ht="21" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B104" s="6"/>
+        <v>523</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6" t="s">
+      <c r="G104" s="6"/>
+      <c r="H104" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H104" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="I104" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="J104" s="6"/>
+      <c r="I104" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>524</v>
+      </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
-    </row>
-    <row r="105" spans="1:14" ht="14" customHeight="1">
-      <c r="A105" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19" t="s">
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="1:15" ht="21" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H105" s="19" t="s">
-        <v>525</v>
-      </c>
       <c r="I105" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="J105" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
-    </row>
-    <row r="106" spans="1:14" ht="14" customHeight="1">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+    </row>
+    <row r="106" spans="1:15" ht="21" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="I106" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
-    </row>
-    <row r="107" spans="1:14" ht="14" customHeight="1">
-      <c r="A107" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19" t="s">
+      <c r="J106" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+    </row>
+    <row r="107" spans="1:15" ht="21" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H107" s="19" t="s">
-        <v>529</v>
-      </c>
       <c r="I107" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19"/>
-    </row>
-    <row r="108" spans="1:14" ht="14" customHeight="1">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
+        <v>565</v>
+      </c>
+      <c r="J107" s="6">
+        <v>70</v>
+      </c>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="1:15" ht="21" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="I108" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-    </row>
-    <row r="109" spans="1:14" ht="14" customHeight="1">
-      <c r="A109" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19" t="s">
+      <c r="J108" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+    </row>
+    <row r="109" spans="1:15" ht="21" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H109" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="I109" s="20" t="s">
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="1:15" ht="21" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="1:15" ht="21" customHeight="1">
+      <c r="A111" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-    </row>
-    <row r="110" spans="1:14" ht="14" customHeight="1">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="I110" s="20"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-    </row>
-    <row r="111" spans="1:14" ht="14" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B111" s="6"/>
+      <c r="B111" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="6" t="s">
+      <c r="G111" s="6"/>
+      <c r="H111" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H111" s="6" t="s">
-        <v>517</v>
-      </c>
       <c r="I111" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="J111" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
-    </row>
-    <row r="112" spans="1:14" ht="14" customHeight="1">
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="1:15" ht="21" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B112" s="6"/>
+      <c r="B112" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="6" t="s">
+      <c r="G112" s="6"/>
+      <c r="H112" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H112" s="6" t="s">
-        <v>538</v>
-      </c>
       <c r="I112" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="J112" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
-    </row>
-    <row r="113" spans="1:14" ht="14" customHeight="1">
-      <c r="A113" s="18" t="s">
+      <c r="O112" s="6"/>
+    </row>
+    <row r="113" spans="1:15" ht="21" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+    </row>
+    <row r="114" spans="1:15" ht="21" customHeight="1">
+      <c r="A114" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="H113" s="6" t="s">
+      <c r="B114" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="I113" s="19">
-        <v>70</v>
-      </c>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-    </row>
-    <row r="114" spans="1:14" ht="14" customHeight="1">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="6" t="s">
+      <c r="I114" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-    </row>
-    <row r="115" spans="1:14" ht="14" customHeight="1">
+      <c r="J114" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="1:15" ht="21" customHeight="1">
       <c r="A115" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B115" s="6"/>
+        <v>543</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="6" t="s">
-        <v>466</v>
-      </c>
+      <c r="G115" s="6"/>
       <c r="H115" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="I115" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="J115" s="6"/>
+        <v>540</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
-    </row>
-    <row r="116" spans="1:14" ht="14" customHeight="1">
+      <c r="O115" s="6"/>
+    </row>
+    <row r="116" spans="1:15" ht="21" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
-    </row>
-    <row r="117" spans="1:14" ht="14" customHeight="1">
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="1:15" ht="21" customHeight="1">
       <c r="A117" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B117" s="6"/>
+        <v>546</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="6" t="s">
-        <v>466</v>
-      </c>
+      <c r="G117" s="6"/>
       <c r="H117" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
+        <v>540</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
-    </row>
-    <row r="118" spans="1:14" ht="14" customHeight="1">
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="1:15" ht="21" customHeight="1">
       <c r="A118" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="B118" s="6"/>
+        <v>480</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="6" t="s">
+      <c r="G118" s="6"/>
+      <c r="H118" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H118" s="6" t="s">
+      <c r="I118" s="6"/>
+      <c r="J118" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="I118" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
-    </row>
-    <row r="119" spans="1:14" ht="14" customHeight="1">
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="1:15" ht="21" customHeight="1">
       <c r="A119" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B119" s="6"/>
+        <v>548</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="6" t="s">
+      <c r="G119" s="6"/>
+      <c r="H119" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H119" s="6" t="s">
-        <v>547</v>
-      </c>
       <c r="I119" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
-    </row>
-    <row r="120" spans="1:14" ht="14" customHeight="1">
+      <c r="O119" s="6"/>
+    </row>
+    <row r="120" spans="1:15" ht="21" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B120" s="6"/>
+      <c r="B120" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="6" t="s">
-        <v>466</v>
-      </c>
+      <c r="G120" s="6"/>
       <c r="H120" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="J120" s="6"/>
+        <v>551</v>
+      </c>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
-    </row>
-    <row r="121" spans="1:14" ht="14" customHeight="1">
+      <c r="O120" s="6"/>
+    </row>
+    <row r="121" spans="1:15" ht="21" customHeight="1">
       <c r="A121" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B121" s="6"/>
+        <v>552</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="G121" s="6"/>
       <c r="H121" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="J121" s="6"/>
+        <v>551</v>
+      </c>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
-    </row>
-    <row r="122" spans="1:14" ht="14" customHeight="1">
+      <c r="O121" s="6"/>
+    </row>
+    <row r="122" spans="1:15" ht="21" customHeight="1">
       <c r="A122" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B122" s="6"/>
+        <v>553</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="G122" s="6"/>
       <c r="H122" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="J122" s="6"/>
+      <c r="J122" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
-    </row>
-    <row r="123" spans="1:14" ht="14" customHeight="1">
+      <c r="O122" s="6"/>
+    </row>
+    <row r="123" spans="1:15" ht="21" customHeight="1">
       <c r="A123" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="B123" s="6"/>
+        <v>555</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="G123" s="6"/>
       <c r="H123" s="6" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="J123" s="6"/>
+      <c r="J123" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
-    </row>
-    <row r="124" spans="1:14" ht="14" customHeight="1">
+      <c r="O123" s="6"/>
+    </row>
+    <row r="124" spans="1:15" ht="21" customHeight="1">
       <c r="A124" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B124" s="6"/>
+        <v>481</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="G124" s="6"/>
       <c r="H124" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="J124" s="6"/>
+        <v>466</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6" t="s">
+        <v>556</v>
+      </c>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
-    </row>
-    <row r="125" spans="1:14" ht="14" customHeight="1">
+      <c r="O124" s="6"/>
+    </row>
+    <row r="125" spans="1:15" ht="21" customHeight="1">
       <c r="A125" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" s="6"/>
+        <v>557</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="6" t="s">
+      <c r="G125" s="6"/>
+      <c r="H125" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-    </row>
-    <row r="126" spans="1:14" ht="14" customHeight="1">
-      <c r="A126" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B126" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+    </row>
+    <row r="126" spans="1:15" ht="21" customHeight="1">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>561</v>
-      </c>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-    </row>
-    <row r="127" spans="1:14" ht="14" customHeight="1">
-      <c r="A127" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="B127" s="6"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+    </row>
+    <row r="127" spans="1:15" ht="21" customHeight="1">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="6" t="s">
-        <v>563</v>
-      </c>
+      <c r="G127" s="6"/>
       <c r="H127" s="6"/>
-      <c r="I127" s="6" t="s">
-        <v>515</v>
-      </c>
+      <c r="I127" s="6"/>
       <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-    </row>
-    <row r="128" spans="1:14" ht="14" customHeight="1">
-      <c r="A128" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B128" s="6"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+    </row>
+    <row r="128" spans="1:15" ht="21" customHeight="1">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="6" t="s">
-        <v>563</v>
-      </c>
+      <c r="G128" s="6"/>
       <c r="H128" s="6"/>
-      <c r="I128" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
-    </row>
-    <row r="129" spans="1:14" ht="14" customHeight="1">
-      <c r="A129" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B129" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+    </row>
+    <row r="129" spans="1:14" ht="21" customHeight="1">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
       <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-    </row>
-    <row r="130" spans="1:14" ht="14" customHeight="1">
-      <c r="A130" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="B130" s="6"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
+    </row>
+    <row r="130" spans="1:14" ht="21" customHeight="1">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
-      <c r="G130" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-    </row>
-    <row r="131" spans="1:14" ht="14" customHeight="1">
-      <c r="A131" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B131" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
+    </row>
+    <row r="131" spans="1:14" ht="21" customHeight="1">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
-      <c r="G131" s="6" t="s">
-        <v>466</v>
-      </c>
+      <c r="G131" s="6"/>
       <c r="H131" s="6"/>
-      <c r="I131" s="6" t="s">
-        <v>568</v>
-      </c>
+      <c r="I131" s="6"/>
       <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-    </row>
-    <row r="132" spans="1:14" ht="14" customHeight="1">
-      <c r="A132" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
-    </row>
-    <row r="133" spans="1:14" ht="14" customHeight="1">
-      <c r="A133" s="18"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-    </row>
-    <row r="134" spans="1:14" ht="14" customHeight="1">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-    </row>
-    <row r="135" spans="1:14" ht="14" customHeight="1">
-      <c r="A135" s="18"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-    </row>
-    <row r="136" spans="1:14" ht="14" customHeight="1">
-      <c r="A136" s="18"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-    </row>
-    <row r="137" spans="1:14" ht="14" customHeight="1">
-      <c r="A137" s="18"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-    </row>
-    <row r="138" spans="1:14" ht="14" customHeight="1">
-      <c r="A138" s="18"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-    </row>
-    <row r="139" spans="1:14" ht="14" customHeight="1">
-      <c r="A139" s="18"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-    </row>
-    <row r="140" spans="1:14" ht="14" customHeight="1">
-      <c r="A140" s="18"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+    </row>
+    <row r="132" spans="1:14" ht="21" customHeight="1">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="18"/>
+    </row>
+    <row r="133" spans="1:14" ht="21" customHeight="1">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="G132:G140"/>
-    <mergeCell ref="H132:H140"/>
-    <mergeCell ref="J132:J140"/>
-    <mergeCell ref="K132:K140"/>
-    <mergeCell ref="L132:L140"/>
-    <mergeCell ref="M132:M140"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="N113:N114"/>
-    <mergeCell ref="A132:A140"/>
-    <mergeCell ref="B132:B140"/>
-    <mergeCell ref="C132:C140"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="E132:E140"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="K101:K103"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="M101:M103"/>
-    <mergeCell ref="N101:N103"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="G101:G103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
+  <mergeCells count="4">
+    <mergeCell ref="N125:N133"/>
+    <mergeCell ref="K125:K133"/>
+    <mergeCell ref="L125:L133"/>
+    <mergeCell ref="M125:M133"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00744C40-1576-0D41-84D4-6E2ABD2E96A5}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00744C40-1576-0D41-84D4-6E2ABD2E96A5}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{3BF18B8D-A3F2-AB43-A593-8164C7459B9E}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{D95A747B-3D58-FD4E-B5F8-FF2C74BC21D0}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{DA4AC668-A21F-2F49-A525-54725B15770E}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{D95A747B-3D58-FD4E-B5F8-FF2C74BC21D0}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{DA4AC668-A21F-2F49-A525-54725B15770E}"/>
     <hyperlink ref="A10" r:id="rId5" xr:uid="{7B479416-B3EE-814A-9DC3-C37733673623}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{6EAA788D-EFB5-8749-AE6D-EA083EEE9A7E}"/>
-    <hyperlink ref="D16" r:id="rId7" xr:uid="{7DDD58AC-59B5-7E40-A942-BF9B7EDD3522}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{ECB64C0E-D8B7-9F49-A847-E6A8443898ED}"/>
-    <hyperlink ref="D18" r:id="rId9" xr:uid="{9BBABD1D-8596-3B46-A86E-C40859553C74}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{F71206B9-57F7-9144-88D9-CA11DFC0B170}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{EC3BA9F8-750B-E442-9C8A-B36EA6299A8C}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{2BD91EF0-50EF-0F4A-B60E-CE4E431B154A}"/>
-    <hyperlink ref="D22" r:id="rId13" xr:uid="{7EF6F98D-9882-FA41-B4E4-57DF2A1BD142}"/>
-    <hyperlink ref="D23" r:id="rId14" xr:uid="{078B2798-DADD-F54C-9503-F4F594AA3DE4}"/>
-    <hyperlink ref="F23" r:id="rId15" location="gid=0" xr:uid="{7097B744-2C34-714C-9B08-328A334C172B}"/>
-    <hyperlink ref="D24" r:id="rId16" xr:uid="{1F2F061B-7A56-6446-85BA-80508F2D8251}"/>
-    <hyperlink ref="D25" r:id="rId17" xr:uid="{FBF730DB-0BB8-6D4B-8B2F-CC289A597D90}"/>
-    <hyperlink ref="D26" r:id="rId18" xr:uid="{5D129F14-C8A1-9342-9B8A-611821A249D3}"/>
-    <hyperlink ref="D27" r:id="rId19" xr:uid="{649726E4-2E17-7945-9B77-329AAB2413C2}"/>
-    <hyperlink ref="D28" r:id="rId20" xr:uid="{E46D3094-FBA4-D44A-A185-39AC2F34BDDD}"/>
-    <hyperlink ref="I28" r:id="rId21" location="gid=0" xr:uid="{3E9C97CF-F038-2E41-BCF7-93A6C13365F1}"/>
-    <hyperlink ref="D29" r:id="rId22" xr:uid="{BC5C0F41-8383-CF4E-8AB4-12EF1E27810C}"/>
-    <hyperlink ref="D30" r:id="rId23" xr:uid="{7F70A314-C3C7-6B43-8694-BF139B5D3141}"/>
-    <hyperlink ref="D31" r:id="rId24" xr:uid="{2AE2D5CF-887D-A14D-9B89-4A61FC0DEA63}"/>
-    <hyperlink ref="D32" r:id="rId25" xr:uid="{BF39F66D-8E0A-4C41-A14B-9E814221A30D}"/>
-    <hyperlink ref="F32" r:id="rId26" location="gid=339479586" xr:uid="{36BC2068-699C-E749-B665-8A95BE92DE1A}"/>
-    <hyperlink ref="I32" r:id="rId27" location="gid=339479586" xr:uid="{0EBCF2E9-5D48-BA46-932F-91F1D9BABA4E}"/>
-    <hyperlink ref="D33" r:id="rId28" xr:uid="{A6FCB035-72CA-A841-97DB-A8AFBCAC9B0D}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{69D223D0-D9ED-2A45-95C1-FE8C2014B41C}"/>
-    <hyperlink ref="D35" r:id="rId30" xr:uid="{43880F3D-A1C1-084D-9175-23D8B32E0550}"/>
-    <hyperlink ref="D37" r:id="rId31" xr:uid="{A1F29FD8-16A2-BD41-95A1-56557DA02DD7}"/>
-    <hyperlink ref="D38" r:id="rId32" xr:uid="{9A5649FE-4E6C-D84E-959E-FE9D89A400CC}"/>
-    <hyperlink ref="D39" r:id="rId33" xr:uid="{4459C28C-0995-FA43-A524-696D486384A2}"/>
-    <hyperlink ref="D41" r:id="rId34" xr:uid="{F4811FB5-524A-A548-86B0-ABF2D204EFC7}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{6EAA788D-EFB5-8749-AE6D-EA083EEE9A7E}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{7DDD58AC-59B5-7E40-A942-BF9B7EDD3522}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{ECB64C0E-D8B7-9F49-A847-E6A8443898ED}"/>
+    <hyperlink ref="E18" r:id="rId9" xr:uid="{9BBABD1D-8596-3B46-A86E-C40859553C74}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{F71206B9-57F7-9144-88D9-CA11DFC0B170}"/>
+    <hyperlink ref="E20" r:id="rId11" xr:uid="{EC3BA9F8-750B-E442-9C8A-B36EA6299A8C}"/>
+    <hyperlink ref="E21" r:id="rId12" xr:uid="{2BD91EF0-50EF-0F4A-B60E-CE4E431B154A}"/>
+    <hyperlink ref="E22" r:id="rId13" xr:uid="{7EF6F98D-9882-FA41-B4E4-57DF2A1BD142}"/>
+    <hyperlink ref="E23" r:id="rId14" xr:uid="{078B2798-DADD-F54C-9503-F4F594AA3DE4}"/>
+    <hyperlink ref="G23" r:id="rId15" location="gid=0" xr:uid="{7097B744-2C34-714C-9B08-328A334C172B}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{1F2F061B-7A56-6446-85BA-80508F2D8251}"/>
+    <hyperlink ref="E25" r:id="rId17" xr:uid="{FBF730DB-0BB8-6D4B-8B2F-CC289A597D90}"/>
+    <hyperlink ref="E26" r:id="rId18" xr:uid="{5D129F14-C8A1-9342-9B8A-611821A249D3}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{649726E4-2E17-7945-9B77-329AAB2413C2}"/>
+    <hyperlink ref="E28" r:id="rId20" xr:uid="{E46D3094-FBA4-D44A-A185-39AC2F34BDDD}"/>
+    <hyperlink ref="J28" r:id="rId21" location="gid=0" xr:uid="{3E9C97CF-F038-2E41-BCF7-93A6C13365F1}"/>
+    <hyperlink ref="E29" r:id="rId22" xr:uid="{BC5C0F41-8383-CF4E-8AB4-12EF1E27810C}"/>
+    <hyperlink ref="E30" r:id="rId23" xr:uid="{7F70A314-C3C7-6B43-8694-BF139B5D3141}"/>
+    <hyperlink ref="E31" r:id="rId24" xr:uid="{2AE2D5CF-887D-A14D-9B89-4A61FC0DEA63}"/>
+    <hyperlink ref="E32" r:id="rId25" xr:uid="{BF39F66D-8E0A-4C41-A14B-9E814221A30D}"/>
+    <hyperlink ref="G32" r:id="rId26" location="gid=339479586" xr:uid="{36BC2068-699C-E749-B665-8A95BE92DE1A}"/>
+    <hyperlink ref="J32" r:id="rId27" location="gid=339479586" xr:uid="{0EBCF2E9-5D48-BA46-932F-91F1D9BABA4E}"/>
+    <hyperlink ref="E33" r:id="rId28" xr:uid="{A6FCB035-72CA-A841-97DB-A8AFBCAC9B0D}"/>
+    <hyperlink ref="E34" r:id="rId29" xr:uid="{69D223D0-D9ED-2A45-95C1-FE8C2014B41C}"/>
+    <hyperlink ref="E35" r:id="rId30" xr:uid="{43880F3D-A1C1-084D-9175-23D8B32E0550}"/>
+    <hyperlink ref="E37" r:id="rId31" xr:uid="{A1F29FD8-16A2-BD41-95A1-56557DA02DD7}"/>
+    <hyperlink ref="E38" r:id="rId32" xr:uid="{9A5649FE-4E6C-D84E-959E-FE9D89A400CC}"/>
+    <hyperlink ref="E39" r:id="rId33" xr:uid="{4459C28C-0995-FA43-A524-696D486384A2}"/>
+    <hyperlink ref="E41" r:id="rId34" xr:uid="{F4811FB5-524A-A548-86B0-ABF2D204EFC7}"/>
     <hyperlink ref="A46" r:id="rId35" xr:uid="{5E711CE6-F7D3-4C40-ABD7-538503F8B855}"/>
-    <hyperlink ref="F57" r:id="rId36" location="gid=0" xr:uid="{88D7B0FA-06F0-624C-A315-A0D7B3534DAC}"/>
-    <hyperlink ref="D92" r:id="rId37" xr:uid="{A56C3914-D98A-F140-ADBB-46DFF6520EF4}"/>
+    <hyperlink ref="G57" r:id="rId36" location="gid=0" xr:uid="{88D7B0FA-06F0-624C-A315-A0D7B3534DAC}"/>
+    <hyperlink ref="E92" r:id="rId37" xr:uid="{A56C3914-D98A-F140-ADBB-46DFF6520EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Publisher - Active Offer List Sep'25.xlsx
+++ b/Publisher - Active Offer List Sep'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanishasrivastava/Desktop/Excel_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E57D67-4C9B-B148-B03C-22C9FAFF71AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4732C61B-94AB-AB49-8720-1DFA84A9C22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{F60A7AD1-56A2-BC49-9007-C444D7CDE69D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="430">
   <si>
     <t>Offer</t>
   </si>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>Install</t>
-  </si>
-  <si>
-    <t>AOS: https://play.google.com/store/apps/details?id=ru.tsum.outlet&amp;hl=ru iOS: https://apps.apple.com/pl/app/цум-аутлет/id6450009110</t>
   </si>
   <si>
     <t>$0.35</t>
@@ -3545,13 +3542,19 @@
   </si>
   <si>
     <t>af_purchase (unique);isNewClient=true</t>
+  </si>
+  <si>
+    <t>AOS: https://play.google.com/store/apps/details?id=ru.tsum.outlet&amp;hl=ru </t>
+  </si>
+  <si>
+    <t>$.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3646,6 +3649,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3673,7 +3682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3695,14 +3704,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4040,7 +4048,7 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4059,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>2</v>
@@ -4074,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>7</v>
@@ -4346,7 +4354,7 @@
         <v>152</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>153</v>
+        <v>428</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -4361,7 +4369,7 @@
         <v>148</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>34</v>
@@ -4387,7 +4395,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -4399,10 +4407,10 @@
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>34</v>
@@ -4425,7 +4433,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>147</v>
@@ -4440,10 +4448,10 @@
         <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>24</v>
@@ -4469,7 +4477,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -4481,10 +4489,10 @@
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>34</v>
@@ -4510,7 +4518,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -4522,10 +4530,10 @@
         <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>34</v>
@@ -4551,7 +4559,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
@@ -4560,13 +4568,13 @@
         <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>34</v>
@@ -4592,7 +4600,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
@@ -4604,10 +4612,10 @@
         <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>34</v>
@@ -4633,7 +4641,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
@@ -4645,10 +4653,10 @@
         <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>24</v>
@@ -4674,7 +4682,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -4686,10 +4694,10 @@
         <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>24</v>
@@ -4703,7 +4711,7 @@
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -4715,7 +4723,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -4727,10 +4735,10 @@
         <v>54</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>34</v>
@@ -4756,7 +4764,7 @@
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
@@ -4768,10 +4776,10 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>24</v>
@@ -4797,7 +4805,7 @@
         <v>152</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -4809,10 +4817,10 @@
         <v>59</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>34</v>
@@ -4826,7 +4834,7 @@
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -4838,7 +4846,7 @@
         <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
@@ -4850,10 +4858,10 @@
         <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>34</v>
@@ -4879,7 +4887,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -4891,10 +4899,10 @@
         <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>41</v>
@@ -4920,7 +4928,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
@@ -4932,10 +4940,10 @@
         <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>64</v>
@@ -4961,22 +4969,22 @@
         <v>66</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>34</v>
@@ -5002,7 +5010,7 @@
         <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
@@ -5014,10 +5022,10 @@
         <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>68</v>
@@ -5039,26 +5047,26 @@
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>425</v>
+      <c r="D25" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>34</v>
@@ -5084,7 +5092,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>11</v>
@@ -5096,10 +5104,10 @@
         <v>13</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>34</v>
@@ -5125,22 +5133,22 @@
         <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>34</v>
@@ -5166,7 +5174,7 @@
         <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>11</v>
@@ -5178,10 +5186,10 @@
         <v>37</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>34</v>
@@ -5204,10 +5212,10 @@
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>11</v>
@@ -5219,10 +5227,10 @@
         <v>13</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>24</v>
@@ -5248,7 +5256,7 @@
         <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>11</v>
@@ -5260,10 +5268,10 @@
         <v>13</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>64</v>
@@ -5286,10 +5294,10 @@
         <v>10</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>11</v>
@@ -5301,10 +5309,10 @@
         <v>13</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>34</v>
@@ -5330,7 +5338,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>11</v>
@@ -5342,10 +5350,10 @@
         <v>13</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>24</v>
@@ -5371,7 +5379,7 @@
         <v>86</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>11</v>
@@ -5383,10 +5391,10 @@
         <v>13</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>34</v>
@@ -5412,7 +5420,7 @@
         <v>83</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>11</v>
@@ -5424,10 +5432,10 @@
         <v>59</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>34</v>
@@ -5453,7 +5461,7 @@
         <v>89</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -5465,10 +5473,10 @@
         <v>13</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>34</v>
@@ -5491,10 +5499,10 @@
         <v>10</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
@@ -5503,13 +5511,13 @@
         <v>91</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>34</v>
@@ -5532,10 +5540,10 @@
         <v>10</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>23</v>
@@ -5547,10 +5555,10 @@
         <v>54</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>94</v>
@@ -5573,10 +5581,10 @@
         <v>10</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>23</v>
@@ -5588,10 +5596,10 @@
         <v>37</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>34</v>
@@ -5614,13 +5622,13 @@
         <v>10</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>98</v>
@@ -5629,10 +5637,10 @@
         <v>99</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>34</v>
@@ -5658,7 +5666,7 @@
         <v>101</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>11</v>
@@ -5670,10 +5678,10 @@
         <v>99</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>19</v>
@@ -5696,10 +5704,10 @@
         <v>10</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>11</v>
@@ -5711,10 +5719,10 @@
         <v>99</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>19</v>
@@ -5731,13 +5739,13 @@
         <v>103</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>147</v>
@@ -5752,10 +5760,10 @@
         <v>99</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>41</v>
@@ -5778,7 +5786,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>147</v>
@@ -5793,10 +5801,10 @@
         <v>99</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>34</v>
@@ -5813,19 +5821,19 @@
         <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>267</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>98</v>
@@ -5834,10 +5842,10 @@
         <v>99</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>34</v>
@@ -5860,10 +5868,10 @@
         <v>10</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>23</v>
@@ -5875,10 +5883,10 @@
         <v>99</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>34</v>
@@ -5901,10 +5909,10 @@
         <v>10</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>108</v>
@@ -5916,7 +5924,7 @@
         <v>99</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>34</v>
@@ -5933,34 +5941,34 @@
     </row>
     <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>99</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>34</v>
@@ -5974,7 +5982,7 @@
     </row>
     <row r="48" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>122</v>
@@ -5983,13 +5991,13 @@
         <v>10</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>98</v>
@@ -5998,13 +6006,13 @@
         <v>99</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>14</v>
@@ -6024,13 +6032,13 @@
         <v>10</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>288</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>98</v>
@@ -6039,13 +6047,13 @@
         <v>99</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>14</v>
@@ -6065,13 +6073,13 @@
         <v>10</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>98</v>
@@ -6080,13 +6088,13 @@
         <v>99</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="K50" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>14</v>
@@ -6100,19 +6108,19 @@
         <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>296</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>98</v>
@@ -6121,13 +6129,13 @@
         <v>99</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="K51" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>14</v>
@@ -6147,13 +6155,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>98</v>
@@ -6162,13 +6170,13 @@
         <v>99</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>14</v>
@@ -6188,13 +6196,13 @@
         <v>10</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>98</v>
@@ -6203,13 +6211,13 @@
         <v>99</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>14</v>
@@ -6223,19 +6231,19 @@
         <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>98</v>
@@ -6244,13 +6252,13 @@
         <v>99</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>14</v>
@@ -6264,19 +6272,19 @@
         <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>311</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>98</v>
@@ -6285,13 +6293,13 @@
         <v>99</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="K55" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>14</v>
@@ -6305,19 +6313,19 @@
         <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>98</v>
@@ -6326,13 +6334,13 @@
         <v>99</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="K56" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>14</v>
@@ -6346,19 +6354,19 @@
         <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="E57" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>98</v>
@@ -6367,13 +6375,13 @@
         <v>99</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="K57" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>14</v>
@@ -6387,34 +6395,34 @@
         <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>317</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>14</v>
@@ -6428,13 +6436,13 @@
         <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>147</v>
@@ -6449,10 +6457,10 @@
         <v>99</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>34</v>
@@ -6475,28 +6483,28 @@
         <v>10</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E60" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="K60" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>14</v>
@@ -6510,34 +6518,34 @@
         <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E61" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>14</v>
@@ -6557,13 +6565,13 @@
         <v>10</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>43</v>
@@ -6572,10 +6580,10 @@
         <v>37</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>34</v>
@@ -6592,31 +6600,31 @@
         <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="E63" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="J63" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>34</v>
@@ -6630,7 +6638,7 @@
     </row>
     <row r="64" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
@@ -6639,10 +6647,10 @@
         <v>10</v>
       </c>
       <c r="D64" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>11</v>
@@ -6654,13 +6662,13 @@
         <v>37</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>14</v>
@@ -6671,7 +6679,7 @@
     </row>
     <row r="65" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
@@ -6680,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="K65" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>14</v>
@@ -6712,7 +6720,7 @@
     </row>
     <row r="66" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -6721,10 +6729,10 @@
         <v>10</v>
       </c>
       <c r="D66" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>351</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>23</v>
@@ -6736,13 +6744,13 @@
         <v>13</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="K66" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>14</v>
@@ -6753,7 +6761,7 @@
     </row>
     <row r="67" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
@@ -6762,10 +6770,10 @@
         <v>10</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>23</v>
@@ -6777,13 +6785,13 @@
         <v>13</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="K67" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>14</v>
@@ -6794,10 +6802,10 @@
     </row>
     <row r="68" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>10</v>
@@ -6818,10 +6826,10 @@
         <v>13</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>41</v>
@@ -6844,7 +6852,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>147</v>
@@ -6856,13 +6864,13 @@
         <v>91</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>41</v>
@@ -6876,7 +6884,7 @@
     </row>
     <row r="70" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>6</v>
@@ -6885,7 +6893,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>147</v>
@@ -6900,13 +6908,13 @@
         <v>13</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>14</v>
@@ -6917,7 +6925,7 @@
     </row>
     <row r="71" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>6</v>
@@ -6941,13 +6949,13 @@
         <v>13</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>14</v>
@@ -6958,7 +6966,7 @@
     </row>
     <row r="72" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>151</v>
@@ -6973,19 +6981,19 @@
         <v>147</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>41</v>
@@ -6999,7 +7007,7 @@
     </row>
     <row r="73" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>6</v>
@@ -7008,10 +7016,10 @@
         <v>10</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>11</v>
@@ -7020,13 +7028,13 @@
         <v>33</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>64</v>
@@ -7040,7 +7048,7 @@
     </row>
     <row r="74" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>6</v>
@@ -7049,10 +7057,10 @@
         <v>10</v>
       </c>
       <c r="D74" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>11</v>
@@ -7061,16 +7069,16 @@
         <v>33</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="K74" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>14</v>
@@ -7081,7 +7089,7 @@
     </row>
     <row r="75" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
@@ -7093,7 +7101,7 @@
         <v>80</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>11</v>
@@ -7105,13 +7113,13 @@
         <v>13</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>14</v>
@@ -7122,7 +7130,7 @@
     </row>
     <row r="76" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>6</v>
@@ -7134,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>11</v>
@@ -7146,13 +7154,13 @@
         <v>13</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="K76" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>14</v>
@@ -7163,7 +7171,7 @@
     </row>
     <row r="77" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>6</v>
@@ -7172,10 +7180,10 @@
         <v>10</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>11</v>
@@ -7187,13 +7195,13 @@
         <v>13</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="K77" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>14</v>
@@ -7204,7 +7212,7 @@
     </row>
     <row r="78" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
@@ -7213,10 +7221,10 @@
         <v>10</v>
       </c>
       <c r="D78" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>11</v>
@@ -7228,10 +7236,10 @@
         <v>37</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>24</v>
@@ -7245,7 +7253,7 @@
     </row>
     <row r="79" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>151</v>
@@ -7257,7 +7265,7 @@
         <v>152</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>11</v>
@@ -7269,10 +7277,10 @@
         <v>37</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>24</v>
@@ -7286,7 +7294,7 @@
     </row>
     <row r="80" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>151</v>
@@ -7295,10 +7303,10 @@
         <v>10</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>11</v>
@@ -7310,13 +7318,13 @@
         <v>37</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="K80" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>14</v>
@@ -7327,7 +7335,7 @@
     </row>
     <row r="81" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
@@ -7336,10 +7344,10 @@
         <v>10</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>11</v>
@@ -7351,13 +7359,13 @@
         <v>37</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="K81" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>14</v>
@@ -7367,8 +7375,8 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18" t="s">
-        <v>416</v>
+      <c r="A82" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>6</v>
@@ -7377,10 +7385,10 @@
         <v>10</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>11</v>
@@ -7391,14 +7399,14 @@
       <c r="H82" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I82" s="17" t="s">
-        <v>426</v>
+      <c r="I82" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="J82" s="2">
         <v>1.6</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>14</v>
@@ -7409,7 +7417,7 @@
     </row>
     <row r="83" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>6</v>
@@ -7418,10 +7426,10 @@
         <v>10</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>11</v>
@@ -7432,14 +7440,14 @@
       <c r="H83" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I83" s="17" t="s">
-        <v>427</v>
+      <c r="I83" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="J83" s="2">
         <v>6.45</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>10</v>
@@ -7457,7 +7465,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="17"/>
+      <c r="I84" s="16"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -7472,7 +7480,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="17"/>
+      <c r="I85" s="16"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -8012,10 +8020,10 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="5"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
     </row>
     <row r="123" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -8026,10 +8034,10 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
     </row>
     <row r="124" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
@@ -8041,10 +8049,10 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
     </row>
     <row r="125" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
@@ -8055,10 +8063,10 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
     </row>
     <row r="126" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
@@ -8070,10 +8078,10 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
     </row>
     <row r="127" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -8084,10 +8092,10 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
     </row>
     <row r="128" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
@@ -8099,10 +8107,10 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
     </row>
     <row r="129" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
@@ -8114,10 +8122,10 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
     </row>
     <row r="130" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
@@ -8129,10 +8137,10 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8141,6 +8149,7 @@
     <mergeCell ref="K122:K130"/>
     <mergeCell ref="L122:L130"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Publisher - Active Offer List Sep'25.xlsx
+++ b/Publisher - Active Offer List Sep'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanishasrivastava/Desktop/Excel_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4732C61B-94AB-AB49-8720-1DFA84A9C22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AF5011-9FC3-094B-93B1-AD882B5280B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{F60A7AD1-56A2-BC49-9007-C444D7CDE69D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="439">
   <si>
     <t>Offer</t>
   </si>
@@ -3548,13 +3548,48 @@
   </si>
   <si>
     <t>$.2</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Digi Credit</t>
+  </si>
+  <si>
+    <t>CPQL (OTP)</t>
+  </si>
+  <si>
+    <t>OTP Verification</t>
+  </si>
+  <si>
+    <t>https://digicredit.in/</t>
+  </si>
+  <si>
+    <t>- </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5% Otp to Disbursal)
+User flow: 
+Click
+Register
+OTP Verification (Payable event)
+PAN ID Details - VKYC
+Salary details loan
+DRR: 2500 -  3000 OTPs (Incent &amp; TM Bidding not allowed)
+Criteria for lead qualification: The User should be a salaried individual with a monthly salary received in a bank account.</t>
+  </si>
+  <si>
+    <t>21 INR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3655,6 +3690,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3679,10 +3727,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3711,8 +3760,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4047,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC8AB52-E5AC-E44C-A0A3-99D7D77BCBB1}">
   <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H78" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7457,19 +7509,45 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="11"/>
+      <c r="A84" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
@@ -8150,6 +8228,9 @@
     <mergeCell ref="L122:L130"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E84" r:id="rId1" xr:uid="{CD40BE4F-0386-3445-8B65-E71AEB0B3E69}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>